--- a/inputs/radar.xlsx
+++ b/inputs/radar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friedele\Repos\DRFM\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0546BD-91F8-4116-A6DC-5F7E74A7DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33EF713-C2DC-42D4-82C8-180D8D21DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="2625" windowWidth="21600" windowHeight="11835" xr2:uid="{E49E1DF9-4937-4C6D-9A78-CA6266DF6DC5}"/>
+    <workbookView xWindow="1005" yWindow="1530" windowWidth="23160" windowHeight="14625" xr2:uid="{E49E1DF9-4937-4C6D-9A78-CA6266DF6DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -464,7 +465,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="R5" sqref="R5:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,13 +790,13 @@
         <v>270000</v>
       </c>
       <c r="P5" s="2">
-        <v>500000</v>
+        <v>550000</v>
       </c>
       <c r="Q5" s="2">
         <v>100</v>
       </c>
       <c r="R5" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="S5" s="2">
         <v>100</v>
@@ -860,7 +861,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="2">
         <v>200</v>
@@ -925,7 +926,7 @@
         <v>100</v>
       </c>
       <c r="R7" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="S7" s="2">
         <v>200</v>
@@ -990,7 +991,7 @@
         <v>100</v>
       </c>
       <c r="R8" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="S8" s="2">
         <v>200</v>
@@ -1055,7 +1056,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="S9" s="2">
         <v>200</v>
